--- a/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,124 +46,133 @@
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>poorly</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>ok</t>
   </si>
   <si>
     <t>paid</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>tried</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>half</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>half</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>piece</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>piece</t>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>picture</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>minutes</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>way</t>
   </si>
   <si>
-    <t>money</t>
+    <t>would</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>negative</t>
@@ -172,16 +181,13 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>favorite</t>
-  </si>
-  <si>
-    <t>excellent</t>
   </si>
   <si>
     <t>loves</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,16 +659,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>0.6461538461538462</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,16 +709,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>0.4545454545454545</v>
+        <v>0.421875</v>
       </c>
       <c r="L4">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9428571428571428</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.4150943396226415</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9174757281553398</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C6">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.4086021505376344</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9032258064516129</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="C7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>0.375</v>
+        <v>0.2510373443983402</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>40</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8913043478260869</v>
+        <v>0.9223300970873787</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.2946058091286307</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L8">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="M8">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>340</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8873239436619719</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.2453371592539455</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L9">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>526</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8548387096774194</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.2110091743119266</v>
+        <v>0.1565573770491803</v>
       </c>
       <c r="L10">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="M10">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>258</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8526315789473684</v>
+        <v>0.8842105263157894</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,31 +1056,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.1493027071369975</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="L11">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1037</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8409090909090909</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="C12">
         <v>37</v>
@@ -1100,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.08635097493036212</v>
+        <v>0.07592472420506165</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>328</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7631578947368421</v>
+        <v>0.765625</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,31 +1156,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.07722258273848151</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="L13">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1422</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7578125</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C14">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,31 +1206,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14">
-        <v>0.05346187554776512</v>
-      </c>
-      <c r="L14">
-        <v>61</v>
-      </c>
-      <c r="M14">
-        <v>61</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1080</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.734375</v>
+        <v>0.71875</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1240,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6984126984126984</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1276,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1284,13 +1266,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6851851851851852</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1302,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1310,13 +1292,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.675</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1328,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1336,13 +1318,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1354,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1362,13 +1344,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6557377049180327</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1380,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1388,13 +1370,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1414,13 +1396,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5714285714285714</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1432,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1440,13 +1422,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1458,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1466,25 +1448,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5555555555555556</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C24">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>25</v>
-      </c>
-      <c r="D24">
-        <v>25</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1492,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5238095238095238</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1510,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1518,13 +1500,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5023696682464455</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1536,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1544,13 +1526,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.462962962962963</v>
+        <v>0.4407582938388626</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1562,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1570,13 +1552,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4310344827586207</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1588,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1622,13 +1604,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4107142857142857</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1640,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1648,13 +1630,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3902439024390244</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1666,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1674,13 +1656,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3681159420289855</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C32">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1692,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>218</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1700,13 +1682,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3608247422680412</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1718,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1726,13 +1708,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3425925925925926</v>
+        <v>0.3420289855072464</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1744,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>71</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1752,13 +1734,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3118811881188119</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="C35">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1770,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>139</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1778,13 +1760,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2721518987341772</v>
+        <v>0.3118811881188119</v>
       </c>
       <c r="C36">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D36">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1796,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>230</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1804,13 +1786,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.23</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="C37">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1822,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>154</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1830,13 +1812,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1932773109243698</v>
+        <v>0.2689873417721519</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1848,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>96</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1856,13 +1838,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.177536231884058</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C39">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1874,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>227</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1882,25 +1864,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1352941176470588</v>
+        <v>0.19</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E40">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1908,13 +1890,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1234177215189873</v>
+        <v>0.1557971014492754</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1926,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>277</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1934,13 +1916,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1013215859030837</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C42">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D42">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1952,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>408</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1960,25 +1942,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.09361069836552749</v>
+        <v>0.152046783625731</v>
       </c>
       <c r="C43">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>610</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1986,25 +1968,103 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.03782894736842105</v>
+        <v>0.09940652818991098</v>
       </c>
       <c r="C44">
+        <v>67</v>
+      </c>
+      <c r="D44">
+        <v>67</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.08590308370044053</v>
+      </c>
+      <c r="C45">
+        <v>39</v>
+      </c>
+      <c r="D45">
+        <v>39</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.07255520504731862</v>
+      </c>
+      <c r="C46">
         <v>23</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>23</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>585</v>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.03358778625954199</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
